--- a/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>A classification that provides the origin of the raw material. Example: cat hair would be an Animal source type.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.type` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.type` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -431,7 +431,7 @@
     <t>The genus of an organism, typically referring to the Latin epithet of the genus element of the plant/animal scientific name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.genus` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.genus` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:genus.id</t>
@@ -461,7 +461,7 @@
     <t>The species of an organism, typically referring to the Latin epithet of the species of the plant/animal.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.species` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.species` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:species.id</t>
@@ -494,7 +494,7 @@
     <t>An anatomical origin of the source material within an organism.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.part` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.part` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:part.id</t>
@@ -524,7 +524,7 @@
     <t>The country or countries where the material is harvested.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.id</t>
@@ -895,7 +895,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="126.75390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="180.6015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="179">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.sourceMaterial` 0..1 `BackboneElement`
 *  R4: `SubstanceSpecification.sourceMaterial` 0..1 `Reference(http://hl7.org/fhir/StructureDefinition/SubstanceSourceMaterial)`
 Following are the generation technical comments:
-Element `SubstanceDefinition.sourceMaterial` is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial`.</t>
+Element `SubstanceDefinition.sourceMaterial` has is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>A classification that provides the origin of the raw material. Example: cat hair would be an Animal source type.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.type` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.type` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
+Element `SubstanceDefinition.sourceMaterial.type` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -431,7 +435,8 @@
     <t>The genus of an organism, typically referring to the Latin epithet of the genus element of the plant/animal scientific name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.genus` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.genus` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
+Element `SubstanceDefinition.sourceMaterial.genus` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:genus.id</t>
@@ -443,6 +448,9 @@
     <t>Extension.extension:genus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.genus</t>
+  </si>
+  <si>
     <t>Extension.extension:genus.value[x]</t>
   </si>
   <si>
@@ -461,7 +469,8 @@
     <t>The species of an organism, typically referring to the Latin epithet of the species of the plant/animal.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.species` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.species` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
+Element `SubstanceDefinition.sourceMaterial.species` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:species.id</t>
@@ -473,6 +482,9 @@
     <t>Extension.extension:species.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.species</t>
+  </si>
+  <si>
     <t>Extension.extension:species.value[x]</t>
   </si>
   <si>
@@ -494,7 +506,8 @@
     <t>An anatomical origin of the source material within an organism.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.part` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.part` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
+Element `SubstanceDefinition.sourceMaterial.part` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:part.id</t>
@@ -506,6 +519,9 @@
     <t>Extension.extension:part.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.part</t>
+  </si>
+  <si>
     <t>Extension.extension:part.value[x]</t>
   </si>
   <si>
@@ -524,7 +540,8 @@
     <t>The country or countries where the material is harvested.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` is will have a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
+Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.id</t>
@@ -534,6 +551,9 @@
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.countryOfOrigin</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.value[x]</t>
@@ -895,7 +915,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="180.6015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="174.6171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1701,7 +1721,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1743,7 +1763,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1758,15 +1778,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1789,7 +1809,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1822,13 +1842,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1846,7 +1866,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1858,21 +1878,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1897,14 +1917,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1973,7 +1993,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2076,7 +2096,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2181,7 +2201,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2224,7 +2244,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2266,7 +2286,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2281,15 +2301,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2312,13 +2332,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2345,13 +2365,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2369,7 +2389,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2381,21 +2401,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2420,14 +2440,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2496,7 +2516,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2599,7 +2619,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2704,7 +2724,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2747,7 +2767,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2789,7 +2809,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2804,15 +2824,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2835,13 +2855,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2868,13 +2888,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2892,7 +2912,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2904,21 +2924,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2943,14 +2963,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3039,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3122,7 +3142,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3227,7 +3247,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3270,7 +3290,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3327,15 +3347,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3358,13 +3378,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3391,13 +3411,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3415,7 +3435,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3427,21 +3447,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3466,14 +3486,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3542,7 +3562,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3645,7 +3665,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3750,7 +3770,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3793,7 +3813,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3855,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -3850,15 +3870,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3881,13 +3901,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3914,13 +3934,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -3938,7 +3958,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3950,18 +3970,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4043,7 +4063,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4058,15 +4078,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4089,13 +4109,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4146,7 +4166,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4158,10 +4178,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
     <t>A classification that provides the origin of the substance raw material.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-source-material-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -454,7 +454,7 @@
     <t>Extension.extension:genus.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-source-material-genus-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-genus-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:species</t>
@@ -491,7 +491,7 @@
     <t>A species of origin a substance raw material.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-source-material-species-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-species-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:part</t>
@@ -525,7 +525,7 @@
     <t>Extension.extension:part.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-source-material-part-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-part-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin</t>
@@ -557,15 +557,6 @@
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.value[x]</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-country-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -926,7 +917,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.58984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.09765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3934,13 +3925,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4109,13 +4100,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.sourceMaterial.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.sourceMaterial` 0..1 `BackboneElement`
 *  R4: `SubstanceSpecification.sourceMaterial` 0..1 `Reference(http://hl7.org/fhir/StructureDefinition/SubstanceSourceMaterial)`
 Following are the generation technical comments:
-Element `SubstanceDefinition.sourceMaterial` has is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial`, but has no comparisons.</t>
+Element `SubstanceDefinition.sourceMaterial` is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>A classification that provides the origin of the raw material. Example: cat hair would be an Animal source type.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.type` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
-Element `SubstanceDefinition.sourceMaterial.type` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.type` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -413,7 +409,7 @@
     <t>A classification that provides the origin of the substance raw material.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -435,8 +431,7 @@
     <t>The genus of an organism, typically referring to the Latin epithet of the genus element of the plant/animal scientific name.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.genus` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
-Element `SubstanceDefinition.sourceMaterial.genus` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.genus` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:genus.id</t>
@@ -448,13 +443,10 @@
     <t>Extension.extension:genus.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.genus</t>
-  </si>
-  <si>
     <t>Extension.extension:genus.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-genus-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-genus-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:species</t>
@@ -469,8 +461,7 @@
     <t>The species of an organism, typically referring to the Latin epithet of the species of the plant/animal.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.species` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
-Element `SubstanceDefinition.sourceMaterial.species` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.species` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:species.id</t>
@@ -482,16 +473,13 @@
     <t>Extension.extension:species.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.species</t>
-  </si>
-  <si>
     <t>Extension.extension:species.value[x]</t>
   </si>
   <si>
     <t>A species of origin a substance raw material.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-species-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-species-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:part</t>
@@ -506,8 +494,7 @@
     <t>An anatomical origin of the source material within an organism.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.part` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
-Element `SubstanceDefinition.sourceMaterial.part` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.part` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:part.id</t>
@@ -519,13 +506,10 @@
     <t>Extension.extension:part.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.part</t>
-  </si>
-  <si>
     <t>Extension.extension:part.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-part-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-source-material-part-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin</t>
@@ -540,8 +524,7 @@
     <t>The country or countries where the material is harvested.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` is part of an existing definition because parent element `SubstanceDefinition.sourceMaterial` requires a cross-version extension.
-Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial.countryOfOrigin` has a context of SubstanceSpecification.sourceMaterial based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.id</t>
@@ -551,9 +534,6 @@
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial.countryOfOrigin</t>
   </si>
   <si>
     <t>Extension.extension:countryOfOrigin.value[x]</t>
@@ -917,7 +897,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.09765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.5078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1712,72 +1692,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1800,7 +1780,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1833,57 +1813,57 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1908,14 +1888,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1984,7 +1964,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2087,7 +2067,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2192,7 +2172,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2235,7 +2215,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2277,30 +2257,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2323,13 +2303,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2356,13 +2336,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2380,33 +2360,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2431,14 +2411,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2507,7 +2487,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2610,7 +2590,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2715,7 +2695,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2758,7 +2738,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2800,30 +2780,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2846,13 +2826,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2879,13 +2859,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2903,33 +2883,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2954,14 +2934,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3030,7 +3010,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3133,7 +3113,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3238,7 +3218,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3281,7 +3261,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3323,30 +3303,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3369,13 +3349,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3402,13 +3382,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3426,33 +3406,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3477,14 +3457,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3553,7 +3533,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3656,7 +3636,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3761,7 +3741,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3804,7 +3784,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3846,30 +3826,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3892,13 +3872,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3949,30 +3929,30 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4054,30 +4034,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4100,13 +4080,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4157,22 +4137,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
